--- a/設定.xlsx
+++ b/設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamu0\R\WORK\csharp-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\R\WORK\csharp-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEEF785-A00A-4C7A-BC23-75F4A4B7837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEEF565-9D4E-4612-BB5F-A1EC07CD5FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="16457" windowHeight="9497" xr2:uid="{41E7816C-BDAA-44CB-8CBA-5458133C06BF}"/>
+    <workbookView xWindow="4940" yWindow="2220" windowWidth="24470" windowHeight="19380" activeTab="1" xr2:uid="{41E7816C-BDAA-44CB-8CBA-5458133C06BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール設定" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>■出品</t>
     <rPh sb="1" eb="3">
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>x10atamutamu@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tamu_java_VC2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J2IyLJTt8Y7fq4sP7Tv2rnp5HvoTa5Rm</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -295,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +323,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,23 +650,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A91433-7454-4917-8FC8-9542E4396788}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.2109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="19.3" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -666,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -675,7 +686,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -684,7 +695,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -695,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -704,17 +715,17 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="19.3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -725,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,7 +745,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -743,12 +754,12 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -766,23 +777,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78555F09-D993-4C34-8C78-E9DC92282585}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.0703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="19.3" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -793,207 +804,225 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7">
+        <v>29798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>29798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>

--- a/設定.xlsx
+++ b/設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\R\WORK\csharp-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEEF565-9D4E-4612-BB5F-A1EC07CD5FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620EB06-4E86-4423-A2E5-0A4F70EF0ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2220" windowWidth="24470" windowHeight="19380" activeTab="1" xr2:uid="{41E7816C-BDAA-44CB-8CBA-5458133C06BF}"/>
+    <workbookView xWindow="8110" yWindow="1620" windowWidth="24470" windowHeight="19380" activeTab="1" xr2:uid="{41E7816C-BDAA-44CB-8CBA-5458133C06BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール設定" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>■出品</t>
     <rPh sb="1" eb="3">
@@ -178,11 +178,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>tamu_java_VC2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>J2IyLJTt8Y7fq4sP7Tv2rnp5HvoTa5Rm</t>
+    <t>u8rwb2vyfem3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nao_tamura7</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -778,7 +778,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -806,36 +806,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="7">
         <v>29798</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7">
-        <v>29798</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7">
-        <v>29798</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
